--- a/工作/重庆新华/退货明细/图书——安徽经纶文化传媒股份有限公司3220007.xlsx
+++ b/工作/重庆新华/退货明细/图书——安徽经纶文化传媒股份有限公司3220007.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\退货明细\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\同步\工作\重庆新华\退货明细\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43435D5F-8DAB-4C28-9F9C-EEA7C2104FB9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -463,12 +464,13 @@
        and ywbmbh='000001' and hybh='000915'
  Group By x.bjlsh,x.hybh
  Order By 供应商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -513,9 +515,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,7 +539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -609,6 +614,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -644,6 +666,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,10 +858,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3994,18 +4033,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A4:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
